--- a/back/tst/perf_out_rest/POST_api_usuario_login_runs.xlsx
+++ b/back/tst/perf_out_rest/POST_api_usuario_login_runs.xlsx
@@ -470,7 +470,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>31.343</v>
+        <v>77.41500000000001</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
@@ -494,7 +494,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>7.488</v>
+        <v>48.223</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
@@ -518,7 +518,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.786</v>
+        <v>74.66200000000001</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
@@ -542,7 +542,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>6.969</v>
+        <v>111.094</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
@@ -566,7 +566,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>24.786</v>
+        <v>107.8</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
@@ -590,7 +590,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>7.151</v>
+        <v>95.874</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
@@ -614,7 +614,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>22.841</v>
+        <v>89.83</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
@@ -638,7 +638,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>6.583</v>
+        <v>12.572</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
@@ -662,7 +662,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>23.786</v>
+        <v>135.775</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
@@ -686,7 +686,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>29.908</v>
+        <v>116.428</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
